--- a/Documentacao/EspecificacaoClasse/Especificação de Classe- Empresa.xlsx
+++ b/Documentacao/EspecificacaoClasse/Especificação de Classe- Empresa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fivestars\Documentacao\EspecificacaoClasse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tcc\Documentacao\EspecificacaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6A7C8-555A-4071-850B-489475D528D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>ESPECIFICAÇÃO DE CLASSE</t>
   </si>
@@ -137,9 +136,6 @@
   </si>
   <si>
     <t>Cidade</t>
-  </si>
-  <si>
-    <t>UF</t>
   </si>
   <si>
     <t>Telefone da empresa</t>
@@ -228,11 +224,19 @@
     <t>Endereço da
  empresa</t>
   </si>
+  <si>
+    <t>Inscrição Estadual
+da empresa</t>
+  </si>
+  <si>
+    <t>Unidade 
+Federativa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -419,11 +423,23 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,26 +453,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -692,54 +696,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.5" customHeight="1">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="D4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:9">
       <c r="D6" s="1" t="s">
@@ -748,12 +752,12 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="2:9" ht="15.75">
       <c r="B7" s="2"/>
@@ -773,8 +777,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="36.75" customHeight="1">
-      <c r="D8" s="21" t="s">
-        <v>34</v>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>11</v>
@@ -793,8 +797,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="31.5" customHeight="1">
-      <c r="D9" s="21" t="s">
-        <v>35</v>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -811,8 +815,8 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="33" customHeight="1">
-      <c r="D10" s="21" t="s">
-        <v>36</v>
+      <c r="D10" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -823,14 +827,14 @@
       <c r="G10" s="5">
         <v>20</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="27.75" customHeight="1">
-      <c r="D11" s="21" t="s">
-        <v>37</v>
+      <c r="D11" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -848,12 +852,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30">
+    <row r="12" spans="2:9" ht="39" customHeight="1">
       <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
+      <c r="E12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -869,268 +873,268 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="D15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="10">
-        <v>8</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="G15" s="12">
+        <v>50</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12">
+        <v>10</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="D15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="I17" s="12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="4:9">
+      <c r="D19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G19" s="12">
+        <v>40</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="4:9">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="12">
+        <v>40</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="F23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12">
+        <v>11</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="12">
+        <v>50</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="4:9">
-      <c r="D17" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="12">
+        <v>10</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="4:9" ht="15.75" customHeight="1">
+      <c r="D31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="10">
-        <v>10</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="4:9">
-      <c r="D19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="10">
-        <v>40</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="4:9">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="10">
-        <v>40</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="10">
-        <v>2</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D25" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="10">
-        <v>11</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D27" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="10">
-        <v>50</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="G31" s="12">
+        <v>30</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D29" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="10">
-        <v>10</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D31" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="10">
-        <v>30</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="10"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -2102,27 +2106,34 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
@@ -2139,35 +2150,28 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
